--- a/infra/ml/azure_app_plan_metrics_with_predictions.xlsx
+++ b/infra/ml/azure_app_plan_metrics_with_predictions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H169"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,19 +481,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45732.46944444445</v>
+        <v>45731.14027777778</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>36.79411764705883</v>
       </c>
       <c r="C2" t="n">
-        <v>72.09999999999999</v>
+        <v>73.65714285714286</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -511,19 +511,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45732.51111111111</v>
+        <v>45731.18194444444</v>
       </c>
       <c r="B3" t="n">
-        <v>25.7</v>
+        <v>26.63333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>71.59999999999999</v>
+        <v>73.83333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -541,19 +541,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45732.55277777778</v>
+        <v>45731.22361111111</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>26.31666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>71.8</v>
+        <v>72.76666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -571,19 +571,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45732.59444444445</v>
+        <v>45731.26527777778</v>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>26.76666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -601,109 +601,109 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45732.63611111111</v>
+        <v>45731.30694444444</v>
       </c>
       <c r="B6" t="n">
-        <v>25.8</v>
+        <v>94.51666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>71.5</v>
+        <v>77.33333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Optimal</t>
+          <t>Overutilized</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Optimal</t>
+          <t>Overutilized</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45732.67777777778</v>
+        <v>45731.34861111111</v>
       </c>
       <c r="B7" t="n">
-        <v>26.1</v>
+        <v>88.16666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>71.59999999999999</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Optimal</t>
+          <t>Overutilized</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Optimal</t>
+          <t>Overutilized</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45732.71944444445</v>
+        <v>45731.39027777778</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4</v>
+        <v>99.96666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>72</v>
+        <v>76.36666666666666</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Optimal</t>
+          <t>Overutilized</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Optimal</t>
+          <t>Overutilized</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45732.76111111111</v>
+        <v>45731.43194444444</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6</v>
+        <v>69.98333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>72.59999999999999</v>
+        <v>75.48333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -721,19 +721,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45732.80277777778</v>
+        <v>45731.47361111111</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>72.8</v>
+        <v>73.38333333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -751,19 +751,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45732.84444444445</v>
+        <v>45731.51527777778</v>
       </c>
       <c r="B11" t="n">
-        <v>26.6</v>
+        <v>25.85</v>
       </c>
       <c r="C11" t="n">
-        <v>72.2</v>
+        <v>72.48333333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -781,19 +781,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45732.88611111111</v>
+        <v>45731.55694444444</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>71.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -811,19 +811,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45732.92777777778</v>
+        <v>45731.59861111111</v>
       </c>
       <c r="B13" t="n">
-        <v>44.6</v>
+        <v>26.4</v>
       </c>
       <c r="C13" t="n">
-        <v>70.8</v>
+        <v>72.28333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -841,19 +841,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45732.96944444445</v>
+        <v>45731.64027777778</v>
       </c>
       <c r="B14" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="C14" t="n">
-        <v>70</v>
+        <v>72.28333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -871,19 +871,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45733.01111111111</v>
+        <v>45731.68194444444</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>71.09999999999999</v>
+        <v>71.91666666666667</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -901,19 +901,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45733.05277777778</v>
+        <v>45731.72361111111</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="C16" t="n">
-        <v>71.09999999999999</v>
+        <v>71.66666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -931,19 +931,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45733.09444444445</v>
+        <v>45731.76527777778</v>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>26.01666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>71.2</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -961,19 +961,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45733.13611111111</v>
+        <v>45731.80694444444</v>
       </c>
       <c r="B18" t="n">
-        <v>25.8</v>
+        <v>26.15</v>
       </c>
       <c r="C18" t="n">
-        <v>71.8</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -991,19 +991,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45733.17777777778</v>
+        <v>45731.84861111111</v>
       </c>
       <c r="B19" t="n">
-        <v>25.8</v>
+        <v>26.25</v>
       </c>
       <c r="C19" t="n">
-        <v>71.2</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -1021,19 +1021,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45733.21944444445</v>
+        <v>45731.89027777778</v>
       </c>
       <c r="B20" t="n">
-        <v>25.9</v>
+        <v>28.03333333333333</v>
       </c>
       <c r="C20" t="n">
-        <v>71.3</v>
+        <v>71.73333333333333</v>
       </c>
       <c r="D20" t="n">
+        <v>21</v>
+      </c>
+      <c r="E20" t="n">
         <v>5</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -1051,19 +1051,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45733.26111111111</v>
+        <v>45731.93194444444</v>
       </c>
       <c r="B21" t="n">
-        <v>26.2</v>
+        <v>42.41666666666666</v>
       </c>
       <c r="C21" t="n">
-        <v>71.40000000000001</v>
+        <v>69.38333333333334</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1081,19 +1081,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45733.30277777778</v>
+        <v>45731.97361111111</v>
       </c>
       <c r="B22" t="n">
-        <v>25.7</v>
+        <v>26.2</v>
       </c>
       <c r="C22" t="n">
-        <v>71.8</v>
+        <v>71.61666666666666</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -1111,19 +1111,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45733.34444444445</v>
+        <v>45732.01527777778</v>
       </c>
       <c r="B23" t="n">
-        <v>25.8</v>
+        <v>26.31666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>71.90000000000001</v>
+        <v>72.08333333333333</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1141,19 +1141,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45733.38611111111</v>
+        <v>45732.05694444444</v>
       </c>
       <c r="B24" t="n">
-        <v>26.1</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>72.3</v>
+        <v>71.83333333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1171,19 +1171,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45733.42777777778</v>
+        <v>45732.09861111111</v>
       </c>
       <c r="B25" t="n">
-        <v>25.9</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>72.7</v>
+        <v>71.55</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -1201,19 +1201,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45733.46944444445</v>
+        <v>45732.14027777778</v>
       </c>
       <c r="B26" t="n">
-        <v>26.2</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>72.2</v>
+        <v>71.91666666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1231,19 +1231,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45733.51111111111</v>
+        <v>45732.18194444444</v>
       </c>
       <c r="B27" t="n">
-        <v>25.8</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="C27" t="n">
-        <v>72</v>
+        <v>71.96666666666667</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1261,19 +1261,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45733.55277777778</v>
+        <v>45732.22361111111</v>
       </c>
       <c r="B28" t="n">
-        <v>26.2</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="C28" t="n">
-        <v>71.7</v>
+        <v>71.55</v>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45733.59444444445</v>
+        <v>45732.26527777778</v>
       </c>
       <c r="B29" t="n">
-        <v>26.4</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="C29" t="n">
-        <v>73</v>
+        <v>71.56666666666666</v>
       </c>
       <c r="D29" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1321,19 +1321,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45733.63611111111</v>
+        <v>45732.30694444444</v>
       </c>
       <c r="B30" t="n">
-        <v>26.4</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="C30" t="n">
-        <v>74.40000000000001</v>
+        <v>71.56666666666666</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1351,19 +1351,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45733.67777777778</v>
+        <v>45732.34861111111</v>
       </c>
       <c r="B31" t="n">
-        <v>26.2</v>
+        <v>26.35</v>
       </c>
       <c r="C31" t="n">
-        <v>73.2</v>
+        <v>72.11666666666666</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1381,19 +1381,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45733.71944444445</v>
+        <v>45732.39027777778</v>
       </c>
       <c r="B32" t="n">
-        <v>26.5</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="C32" t="n">
-        <v>72.7</v>
+        <v>72.25</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
@@ -1411,19 +1411,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45733.76111111111</v>
+        <v>45732.43194444444</v>
       </c>
       <c r="B33" t="n">
-        <v>26.2</v>
+        <v>26.03333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>72.59999999999999</v>
+        <v>72.03333333333333</v>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -1441,19 +1441,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45733.80277777778</v>
+        <v>45732.47361111111</v>
       </c>
       <c r="B34" t="n">
-        <v>27.2</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>72.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="D34" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1471,19 +1471,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45733.84444444445</v>
+        <v>45732.51527777778</v>
       </c>
       <c r="B35" t="n">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="C35" t="n">
-        <v>72.59999999999999</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -1501,19 +1501,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45733.88611111111</v>
+        <v>45732.55694444444</v>
       </c>
       <c r="B36" t="n">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="C36" t="n">
-        <v>72.90000000000001</v>
+        <v>71.78333333333333</v>
       </c>
       <c r="D36" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -1531,19 +1531,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45733.92777777778</v>
+        <v>45732.59861111111</v>
       </c>
       <c r="B37" t="n">
-        <v>44</v>
+        <v>26.01666666666667</v>
       </c>
       <c r="C37" t="n">
-        <v>69.3</v>
+        <v>71.96666666666667</v>
       </c>
       <c r="D37" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1561,19 +1561,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45733.96944444445</v>
+        <v>45732.64027777778</v>
       </c>
       <c r="B38" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="C38" t="n">
-        <v>72.3</v>
+        <v>71.53333333333333</v>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -1591,19 +1591,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45734.01111111111</v>
+        <v>45732.68194444444</v>
       </c>
       <c r="B39" t="n">
-        <v>26.4</v>
+        <v>26.06666666666667</v>
       </c>
       <c r="C39" t="n">
-        <v>72.5</v>
+        <v>71.56666666666666</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -1621,19 +1621,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45734.05277777778</v>
+        <v>45732.72361111111</v>
       </c>
       <c r="B40" t="n">
-        <v>26.3</v>
+        <v>26.48333333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>72</v>
+        <v>71.98333333333333</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1651,19 +1651,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45734.09444444445</v>
+        <v>45732.76527777778</v>
       </c>
       <c r="B41" t="n">
-        <v>26.2</v>
+        <v>26.61666666666667</v>
       </c>
       <c r="C41" t="n">
-        <v>72</v>
+        <v>72.84999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1681,19 +1681,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45734.13611111111</v>
+        <v>45732.80694444444</v>
       </c>
       <c r="B42" t="n">
-        <v>26.2</v>
+        <v>26.48333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>71.8</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1711,19 +1711,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45734.17777777778</v>
+        <v>45732.84861111111</v>
       </c>
       <c r="B43" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="C43" t="n">
-        <v>71.8</v>
+        <v>72.31666666666666</v>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1741,19 +1741,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45734.21944444445</v>
+        <v>45732.89027777778</v>
       </c>
       <c r="B44" t="n">
-        <v>26.5</v>
+        <v>27.88333333333333</v>
       </c>
       <c r="C44" t="n">
-        <v>71.8</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -1771,19 +1771,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45734.26111111111</v>
+        <v>45732.93194444444</v>
       </c>
       <c r="B45" t="n">
-        <v>26.3</v>
+        <v>43.03333333333333</v>
       </c>
       <c r="C45" t="n">
-        <v>72.3</v>
+        <v>70.76666666666667</v>
       </c>
       <c r="D45" t="n">
+        <v>22</v>
+      </c>
+      <c r="E45" t="n">
         <v>6</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1801,19 +1801,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45734.30277777778</v>
+        <v>45732.97361111111</v>
       </c>
       <c r="B46" t="n">
-        <v>26.4</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="C46" t="n">
-        <v>72.40000000000001</v>
+        <v>70.41666666666667</v>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1831,19 +1831,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45734.34444444445</v>
+        <v>45733.01527777778</v>
       </c>
       <c r="B47" t="n">
-        <v>26.2</v>
+        <v>26.05</v>
       </c>
       <c r="C47" t="n">
-        <v>73.09999999999999</v>
+        <v>71.08333333333333</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1861,19 +1861,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45734.38611111111</v>
+        <v>45733.05694444444</v>
       </c>
       <c r="B48" t="n">
-        <v>26.5</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="C48" t="n">
-        <v>73</v>
+        <v>71.13333333333334</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1891,19 +1891,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45734.42777777778</v>
+        <v>45733.09861111111</v>
       </c>
       <c r="B49" t="n">
-        <v>26.1</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="C49" t="n">
-        <v>73</v>
+        <v>71.28333333333333</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45734.46944444445</v>
+        <v>45733.14027777778</v>
       </c>
       <c r="B50" t="n">
-        <v>26.2</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="C50" t="n">
-        <v>72.8</v>
+        <v>71.73333333333333</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -1951,19 +1951,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45734.51111111111</v>
+        <v>45733.18194444444</v>
       </c>
       <c r="B51" t="n">
-        <v>25.9</v>
+        <v>25.85</v>
       </c>
       <c r="C51" t="n">
-        <v>72.7</v>
+        <v>71.18333333333334</v>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
@@ -1981,19 +1981,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45734.55277777778</v>
+        <v>45733.22361111111</v>
       </c>
       <c r="B52" t="n">
-        <v>26</v>
+        <v>25.81666666666667</v>
       </c>
       <c r="C52" t="n">
-        <v>72.90000000000001</v>
+        <v>71.31666666666666</v>
       </c>
       <c r="D52" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -2011,19 +2011,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45734.59444444445</v>
+        <v>45733.26527777778</v>
       </c>
       <c r="B53" t="n">
-        <v>26.3</v>
+        <v>26.31666666666667</v>
       </c>
       <c r="C53" t="n">
-        <v>72.7</v>
+        <v>71.43333333333334</v>
       </c>
       <c r="D53" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
@@ -2041,19 +2041,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45734.63611111111</v>
+        <v>45733.30694444444</v>
       </c>
       <c r="B54" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="C54" t="n">
-        <v>73</v>
+        <v>71.86666666666666</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
@@ -2071,19 +2071,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45734.67777777778</v>
+        <v>45733.34861111111</v>
       </c>
       <c r="B55" t="n">
-        <v>26.2</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="C55" t="n">
-        <v>73.09999999999999</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -2101,19 +2101,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45734.71944444445</v>
+        <v>45733.39027777778</v>
       </c>
       <c r="B56" t="n">
-        <v>26.4</v>
+        <v>26.13333333333333</v>
       </c>
       <c r="C56" t="n">
-        <v>73.3</v>
+        <v>72.45</v>
       </c>
       <c r="D56" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
@@ -2131,19 +2131,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45734.76111111111</v>
+        <v>45733.43194444444</v>
       </c>
       <c r="B57" t="n">
-        <v>26.6</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="C57" t="n">
-        <v>73.40000000000001</v>
+        <v>72.56666666666666</v>
       </c>
       <c r="D57" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
@@ -2161,19 +2161,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45734.80277777778</v>
+        <v>45733.47361111111</v>
       </c>
       <c r="B58" t="n">
-        <v>27.9</v>
+        <v>26.15</v>
       </c>
       <c r="C58" t="n">
-        <v>72.09999999999999</v>
+        <v>72.13333333333334</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2191,19 +2191,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45734.84444444445</v>
+        <v>45733.51527777778</v>
       </c>
       <c r="B59" t="n">
-        <v>27.2</v>
+        <v>25.9</v>
       </c>
       <c r="C59" t="n">
-        <v>71.8</v>
+        <v>72.03333333333333</v>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -2221,19 +2221,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45734.88611111111</v>
+        <v>45733.55694444444</v>
       </c>
       <c r="B60" t="n">
-        <v>26.6</v>
+        <v>26.21666666666667</v>
       </c>
       <c r="C60" t="n">
-        <v>73.59999999999999</v>
+        <v>71.71666666666667</v>
       </c>
       <c r="D60" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -2251,19 +2251,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45734.92777777778</v>
+        <v>45733.59861111111</v>
       </c>
       <c r="B61" t="n">
-        <v>43.5</v>
+        <v>26.48333333333333</v>
       </c>
       <c r="C61" t="n">
-        <v>67.7</v>
+        <v>73.25</v>
       </c>
       <c r="D61" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2281,19 +2281,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45734.96944444445</v>
+        <v>45733.64027777778</v>
       </c>
       <c r="B62" t="n">
-        <v>26</v>
+        <v>26.25</v>
       </c>
       <c r="C62" t="n">
-        <v>68.7</v>
+        <v>74.36666666666666</v>
       </c>
       <c r="D62" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
@@ -2311,19 +2311,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45735.01111111111</v>
+        <v>45733.68194444444</v>
       </c>
       <c r="B63" t="n">
-        <v>25.9</v>
+        <v>26.28333333333333</v>
       </c>
       <c r="C63" t="n">
-        <v>70.3</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="D63" t="n">
+        <v>16</v>
+      </c>
+      <c r="E63" t="n">
         <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -2341,19 +2341,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45735.05277777778</v>
+        <v>45733.72361111111</v>
       </c>
       <c r="B64" t="n">
-        <v>27.8</v>
+        <v>26.43333333333333</v>
       </c>
       <c r="C64" t="n">
-        <v>73.09999999999999</v>
+        <v>72.58333333333333</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -2371,19 +2371,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45735.09444444445</v>
+        <v>45733.76527777778</v>
       </c>
       <c r="B65" t="n">
         <v>26.3</v>
       </c>
       <c r="C65" t="n">
-        <v>73.3</v>
+        <v>72.61666666666666</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -2401,19 +2401,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45735.13611111111</v>
+        <v>45733.80694444444</v>
       </c>
       <c r="B66" t="n">
-        <v>26.1</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="C66" t="n">
-        <v>69.5</v>
+        <v>72.41666666666667</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2431,19 +2431,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45735.17777777778</v>
+        <v>45733.84861111111</v>
       </c>
       <c r="B67" t="n">
-        <v>25.6</v>
+        <v>26.25</v>
       </c>
       <c r="C67" t="n">
-        <v>68.40000000000001</v>
+        <v>72.81666666666666</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -2461,19 +2461,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45735.21944444445</v>
+        <v>45733.89027777778</v>
       </c>
       <c r="B68" t="n">
-        <v>25.8</v>
+        <v>28.1</v>
       </c>
       <c r="C68" t="n">
-        <v>69.2</v>
+        <v>72.43333333333334</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -2491,19 +2491,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45735.26111111111</v>
+        <v>45733.93194444444</v>
       </c>
       <c r="B69" t="n">
-        <v>26.6</v>
+        <v>42.31666666666667</v>
       </c>
       <c r="C69" t="n">
-        <v>70.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -2521,19 +2521,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45735.30277777778</v>
+        <v>45733.97361111111</v>
       </c>
       <c r="B70" t="n">
-        <v>25.8</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="C70" t="n">
-        <v>70.59999999999999</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -2551,19 +2551,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45735.34444444445</v>
+        <v>45734.01527777778</v>
       </c>
       <c r="B71" t="n">
-        <v>25.6</v>
+        <v>26.3</v>
       </c>
       <c r="C71" t="n">
-        <v>71.5</v>
+        <v>72.48333333333333</v>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -2581,19 +2581,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45735.38611111111</v>
+        <v>45734.05694444444</v>
       </c>
       <c r="B72" t="n">
-        <v>25.7</v>
+        <v>26.23333333333333</v>
       </c>
       <c r="C72" t="n">
-        <v>70.8</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -2611,19 +2611,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45735.42777777778</v>
+        <v>45734.09861111111</v>
       </c>
       <c r="B73" t="n">
-        <v>25.6</v>
+        <v>26.15</v>
       </c>
       <c r="C73" t="n">
-        <v>70.7</v>
+        <v>72.13333333333334</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -2641,19 +2641,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45735.46944444445</v>
+        <v>45734.14027777778</v>
       </c>
       <c r="B74" t="n">
-        <v>26.2</v>
+        <v>26.18333333333333</v>
       </c>
       <c r="C74" t="n">
-        <v>71.2</v>
+        <v>71.8</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -2671,19 +2671,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45735.51111111111</v>
+        <v>45734.18194444444</v>
       </c>
       <c r="B75" t="n">
-        <v>26.2</v>
+        <v>26.38333333333333</v>
       </c>
       <c r="C75" t="n">
-        <v>71.7</v>
+        <v>71.78333333333333</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
@@ -2701,19 +2701,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45735.55277777778</v>
+        <v>45734.22361111111</v>
       </c>
       <c r="B76" t="n">
-        <v>26</v>
+        <v>26.43333333333333</v>
       </c>
       <c r="C76" t="n">
-        <v>69.59999999999999</v>
+        <v>71.7</v>
       </c>
       <c r="D76" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>1</v>
@@ -2731,19 +2731,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45735.59444444445</v>
+        <v>45734.26527777778</v>
       </c>
       <c r="B77" t="n">
-        <v>26.2</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="C77" t="n">
-        <v>70.5</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -2761,19 +2761,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45735.63611111111</v>
+        <v>45734.30694444444</v>
       </c>
       <c r="B78" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="C78" t="n">
-        <v>70.7</v>
+        <v>72.61666666666666</v>
       </c>
       <c r="D78" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
@@ -2791,19 +2791,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45735.67777777778</v>
+        <v>45734.34861111111</v>
       </c>
       <c r="B79" t="n">
-        <v>26.8</v>
+        <v>26.28333333333333</v>
       </c>
       <c r="C79" t="n">
-        <v>70.7</v>
+        <v>73.03333333333333</v>
       </c>
       <c r="D79" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45735.71944444445</v>
+        <v>45734.39027777778</v>
       </c>
       <c r="B80" t="n">
-        <v>26.8</v>
+        <v>26.48333333333333</v>
       </c>
       <c r="C80" t="n">
-        <v>70.59999999999999</v>
+        <v>72.98333333333333</v>
       </c>
       <c r="D80" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -2851,19 +2851,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45735.76111111111</v>
+        <v>45734.43194444444</v>
       </c>
       <c r="B81" t="n">
-        <v>26</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="C81" t="n">
-        <v>71</v>
+        <v>72.95</v>
       </c>
       <c r="D81" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
@@ -2881,19 +2881,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45735.80277777778</v>
+        <v>45734.47361111111</v>
       </c>
       <c r="B82" t="n">
-        <v>26.1</v>
+        <v>26.18333333333333</v>
       </c>
       <c r="C82" t="n">
-        <v>70.8</v>
+        <v>72.75</v>
       </c>
       <c r="D82" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
@@ -2911,19 +2911,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45735.84444444445</v>
+        <v>45734.51527777778</v>
       </c>
       <c r="B83" t="n">
-        <v>25.9</v>
+        <v>25.85</v>
       </c>
       <c r="C83" t="n">
-        <v>70.7</v>
+        <v>72.75</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -2941,19 +2941,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45735.88611111111</v>
+        <v>45734.55694444444</v>
       </c>
       <c r="B84" t="n">
-        <v>26.1</v>
+        <v>25.95</v>
       </c>
       <c r="C84" t="n">
-        <v>69.8</v>
+        <v>72.91666666666667</v>
       </c>
       <c r="D84" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -2971,19 +2971,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45735.92777777778</v>
+        <v>45734.59861111111</v>
       </c>
       <c r="B85" t="n">
-        <v>43.4</v>
+        <v>26.28333333333333</v>
       </c>
       <c r="C85" t="n">
-        <v>64.90000000000001</v>
+        <v>72.63333333333334</v>
       </c>
       <c r="D85" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -3001,19 +3001,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45735.96944444445</v>
+        <v>45734.64027777778</v>
       </c>
       <c r="B86" t="n">
-        <v>25.8</v>
+        <v>25.85</v>
       </c>
       <c r="C86" t="n">
-        <v>68.3</v>
+        <v>73.03333333333333</v>
       </c>
       <c r="D86" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -3031,19 +3031,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45736.01111111111</v>
+        <v>45734.68194444444</v>
       </c>
       <c r="B87" t="n">
-        <v>26.3</v>
+        <v>26.28333333333333</v>
       </c>
       <c r="C87" t="n">
-        <v>69.59999999999999</v>
+        <v>73.05</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3061,19 +3061,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45736.05277777778</v>
+        <v>45734.72361111111</v>
       </c>
       <c r="B88" t="n">
-        <v>25.9</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="C88" t="n">
-        <v>68.3</v>
+        <v>73.3</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -3091,19 +3091,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45736.09444444445</v>
+        <v>45734.76527777778</v>
       </c>
       <c r="B89" t="n">
-        <v>25.8</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="C89" t="n">
-        <v>69.3</v>
+        <v>73.56666666666666</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -3121,19 +3121,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45736.13611111111</v>
+        <v>45734.80694444444</v>
       </c>
       <c r="B90" t="n">
-        <v>25.4</v>
+        <v>27.98333333333333</v>
       </c>
       <c r="C90" t="n">
-        <v>69.5</v>
+        <v>71.71666666666667</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -3151,19 +3151,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45736.17777777778</v>
+        <v>45734.84861111111</v>
       </c>
       <c r="B91" t="n">
-        <v>25.7</v>
+        <v>27.18333333333333</v>
       </c>
       <c r="C91" t="n">
-        <v>69.59999999999999</v>
+        <v>72</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -3181,19 +3181,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45736.21944444445</v>
+        <v>45734.89027777778</v>
       </c>
       <c r="B92" t="n">
-        <v>25.4</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="C92" t="n">
-        <v>69.90000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -3211,19 +3211,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45736.26111111111</v>
+        <v>45734.93194444444</v>
       </c>
       <c r="B93" t="n">
-        <v>25.9</v>
+        <v>41.75</v>
       </c>
       <c r="C93" t="n">
-        <v>71.2</v>
+        <v>67.48333333333333</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -3241,19 +3241,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45736.30277777778</v>
+        <v>45734.97361111111</v>
       </c>
       <c r="B94" t="n">
-        <v>25.7</v>
+        <v>26.01666666666667</v>
       </c>
       <c r="C94" t="n">
-        <v>68.8</v>
+        <v>68.98333333333333</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -3271,19 +3271,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45736.34444444445</v>
+        <v>45735.01527777778</v>
       </c>
       <c r="B95" t="n">
-        <v>25.7</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="C95" t="n">
-        <v>70.40000000000001</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -3301,19 +3301,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45736.38611111111</v>
+        <v>45735.05694444444</v>
       </c>
       <c r="B96" t="n">
-        <v>25.6</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="C96" t="n">
-        <v>70</v>
+        <v>73.61666666666666</v>
       </c>
       <c r="D96" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -3331,19 +3331,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45736.42777777778</v>
+        <v>45735.09861111111</v>
       </c>
       <c r="B97" t="n">
-        <v>25.9</v>
+        <v>26.21666666666667</v>
       </c>
       <c r="C97" t="n">
-        <v>70.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -3361,19 +3361,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45736.46944444445</v>
+        <v>45735.14027777778</v>
       </c>
       <c r="B98" t="n">
-        <v>25.8</v>
+        <v>26.01666666666667</v>
       </c>
       <c r="C98" t="n">
-        <v>70.40000000000001</v>
+        <v>69.15000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -3391,19 +3391,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45736.51111111111</v>
+        <v>45735.18194444444</v>
       </c>
       <c r="B99" t="n">
-        <v>25.9</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="C99" t="n">
-        <v>70.3</v>
+        <v>68.41666666666667</v>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -3421,19 +3421,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45736.55277777778</v>
+        <v>45735.22361111111</v>
       </c>
       <c r="B100" t="n">
-        <v>26</v>
+        <v>25.88333333333333</v>
       </c>
       <c r="C100" t="n">
-        <v>70.5</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -3451,19 +3451,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45736.59444444445</v>
+        <v>45735.26527777778</v>
       </c>
       <c r="B101" t="n">
-        <v>26.1</v>
+        <v>26.61666666666667</v>
       </c>
       <c r="C101" t="n">
-        <v>70.5</v>
+        <v>70.21666666666667</v>
       </c>
       <c r="D101" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
@@ -3481,19 +3481,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45736.63611111111</v>
+        <v>45735.30694444444</v>
       </c>
       <c r="B102" t="n">
-        <v>25.5</v>
+        <v>25.78333333333333</v>
       </c>
       <c r="C102" t="n">
-        <v>70.59999999999999</v>
+        <v>70.66666666666667</v>
       </c>
       <c r="D102" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -3511,19 +3511,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45736.67777777778</v>
+        <v>45735.34861111111</v>
       </c>
       <c r="B103" t="n">
-        <v>25.8</v>
+        <v>25.61666666666667</v>
       </c>
       <c r="C103" t="n">
-        <v>70.5</v>
+        <v>71.31666666666666</v>
       </c>
       <c r="D103" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -3541,19 +3541,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45736.71944444445</v>
+        <v>45735.39027777778</v>
       </c>
       <c r="B104" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="C104" t="n">
-        <v>71.59999999999999</v>
+        <v>70.81666666666666</v>
       </c>
       <c r="D104" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -3571,19 +3571,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45736.76111111111</v>
+        <v>45735.43194444444</v>
       </c>
       <c r="B105" t="n">
-        <v>27.6</v>
+        <v>25.7</v>
       </c>
       <c r="C105" t="n">
-        <v>71.90000000000001</v>
+        <v>70.71666666666667</v>
       </c>
       <c r="D105" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -3601,19 +3601,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45736.80277777778</v>
+        <v>45735.47361111111</v>
       </c>
       <c r="B106" t="n">
-        <v>26</v>
+        <v>26.35</v>
       </c>
       <c r="C106" t="n">
-        <v>71.90000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="D106" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -3631,19 +3631,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45736.84444444445</v>
+        <v>45735.51527777778</v>
       </c>
       <c r="B107" t="n">
-        <v>25.8</v>
+        <v>26.08333333333333</v>
       </c>
       <c r="C107" t="n">
-        <v>71.40000000000001</v>
+        <v>71.53333333333333</v>
       </c>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
         <v>1</v>
@@ -3661,19 +3661,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45736.88611111111</v>
+        <v>45735.55694444444</v>
       </c>
       <c r="B108" t="n">
-        <v>25.8</v>
+        <v>26.11666666666667</v>
       </c>
       <c r="C108" t="n">
-        <v>72.09999999999999</v>
+        <v>69.66666666666667</v>
       </c>
       <c r="D108" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
         <v>1</v>
@@ -3691,19 +3691,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45736.92777777778</v>
+        <v>45735.59861111111</v>
       </c>
       <c r="B109" t="n">
-        <v>43.9</v>
+        <v>26.13333333333333</v>
       </c>
       <c r="C109" t="n">
-        <v>68</v>
+        <v>70.46666666666667</v>
       </c>
       <c r="D109" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
         <v>1</v>
@@ -3721,19 +3721,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45736.96944444445</v>
+        <v>45735.64027777778</v>
       </c>
       <c r="B110" t="n">
-        <v>25.8</v>
+        <v>25.91666666666667</v>
       </c>
       <c r="C110" t="n">
-        <v>70</v>
+        <v>70.75</v>
       </c>
       <c r="D110" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -3751,19 +3751,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45737.01111111111</v>
+        <v>45735.68194444444</v>
       </c>
       <c r="B111" t="n">
-        <v>25.8</v>
+        <v>27</v>
       </c>
       <c r="C111" t="n">
-        <v>71.2</v>
+        <v>70.66666666666667</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F111" t="n">
         <v>1</v>
@@ -3781,19 +3781,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45737.05277777778</v>
+        <v>45735.72361111111</v>
       </c>
       <c r="B112" t="n">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="C112" t="n">
-        <v>71.59999999999999</v>
+        <v>70.68333333333334</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
         <v>1</v>
@@ -3811,19 +3811,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45737.09444444445</v>
+        <v>45735.76527777778</v>
       </c>
       <c r="B113" t="n">
-        <v>26.9</v>
+        <v>25.98333333333333</v>
       </c>
       <c r="C113" t="n">
-        <v>71.7</v>
+        <v>70.91666666666667</v>
       </c>
       <c r="D113" t="n">
+        <v>18</v>
+      </c>
+      <c r="E113" t="n">
         <v>2</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4</v>
       </c>
       <c r="F113" t="n">
         <v>1</v>
@@ -3841,19 +3841,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45737.13611111111</v>
+        <v>45735.80694444444</v>
       </c>
       <c r="B114" t="n">
-        <v>26.2</v>
+        <v>26.08333333333333</v>
       </c>
       <c r="C114" t="n">
-        <v>70</v>
+        <v>70.75</v>
       </c>
       <c r="D114" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E114" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F114" t="n">
         <v>1</v>
@@ -3871,19 +3871,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45737.17777777778</v>
+        <v>45735.84861111111</v>
       </c>
       <c r="B115" t="n">
-        <v>25.4</v>
+        <v>25.85</v>
       </c>
       <c r="C115" t="n">
-        <v>69.09999999999999</v>
+        <v>70.75</v>
       </c>
       <c r="D115" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
         <v>1</v>
@@ -3901,19 +3901,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45737.21944444445</v>
+        <v>45735.89027777778</v>
       </c>
       <c r="B116" t="n">
-        <v>26</v>
+        <v>27.7</v>
       </c>
       <c r="C116" t="n">
-        <v>69.90000000000001</v>
+        <v>69.26666666666667</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
         <v>1</v>
@@ -3931,19 +3931,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45737.26111111111</v>
+        <v>45735.93194444444</v>
       </c>
       <c r="B117" t="n">
-        <v>25.8</v>
+        <v>41.91666666666666</v>
       </c>
       <c r="C117" t="n">
-        <v>70.2</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
@@ -3961,19 +3961,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45737.30277777778</v>
+        <v>45735.97361111111</v>
       </c>
       <c r="B118" t="n">
-        <v>25.6</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="C118" t="n">
-        <v>70.3</v>
+        <v>68.73333333333333</v>
       </c>
       <c r="D118" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F118" t="n">
         <v>1</v>
@@ -3991,19 +3991,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45737.34444444445</v>
+        <v>45736.01527777778</v>
       </c>
       <c r="B119" t="n">
-        <v>25.8</v>
+        <v>26.3</v>
       </c>
       <c r="C119" t="n">
-        <v>71.90000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>1</v>
@@ -4021,19 +4021,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45737.38611111111</v>
+        <v>45736.05694444444</v>
       </c>
       <c r="B120" t="n">
-        <v>25.6</v>
+        <v>25.9</v>
       </c>
       <c r="C120" t="n">
-        <v>72.5</v>
+        <v>68.46666666666667</v>
       </c>
       <c r="D120" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
         <v>1</v>
@@ -4051,19 +4051,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45737.42777777778</v>
+        <v>45736.09861111111</v>
       </c>
       <c r="B121" t="n">
-        <v>25.8</v>
+        <v>25.71666666666667</v>
       </c>
       <c r="C121" t="n">
-        <v>71.90000000000001</v>
+        <v>69.33333333333333</v>
       </c>
       <c r="D121" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
         <v>1</v>
@@ -4081,19 +4081,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45737.46944444445</v>
+        <v>45736.14027777778</v>
       </c>
       <c r="B122" t="n">
-        <v>25.9</v>
+        <v>25.53333333333333</v>
       </c>
       <c r="C122" t="n">
-        <v>71.7</v>
+        <v>69.43333333333334</v>
       </c>
       <c r="D122" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F122" t="n">
         <v>1</v>
@@ -4111,19 +4111,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45737.51111111111</v>
+        <v>45736.18194444444</v>
       </c>
       <c r="B123" t="n">
-        <v>27</v>
+        <v>25.6</v>
       </c>
       <c r="C123" t="n">
-        <v>71.8</v>
+        <v>69.68333333333334</v>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
         <v>1</v>
@@ -4141,19 +4141,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45737.55277777778</v>
+        <v>45736.22361111111</v>
       </c>
       <c r="B124" t="n">
-        <v>26.6</v>
+        <v>25.5</v>
       </c>
       <c r="C124" t="n">
-        <v>71.8</v>
+        <v>69.95</v>
       </c>
       <c r="D124" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F124" t="n">
         <v>1</v>
@@ -4171,19 +4171,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45737.59444444445</v>
+        <v>45736.26527777778</v>
       </c>
       <c r="B125" t="n">
-        <v>26.8</v>
+        <v>26.11666666666667</v>
       </c>
       <c r="C125" t="n">
-        <v>72.09999999999999</v>
+        <v>71.03333333333333</v>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
         <v>1</v>
@@ -4201,19 +4201,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45737.63611111111</v>
+        <v>45736.30694444444</v>
       </c>
       <c r="B126" t="n">
-        <v>26.3</v>
+        <v>25.45</v>
       </c>
       <c r="C126" t="n">
-        <v>72.09999999999999</v>
+        <v>68.91666666666667</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
         <v>1</v>
@@ -4231,19 +4231,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45737.67777777778</v>
+        <v>45736.34861111111</v>
       </c>
       <c r="B127" t="n">
-        <v>26.5</v>
+        <v>25.68333333333333</v>
       </c>
       <c r="C127" t="n">
-        <v>71.40000000000001</v>
+        <v>70.51666666666667</v>
       </c>
       <c r="D127" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F127" t="n">
         <v>1</v>
@@ -4261,19 +4261,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45737.71944444445</v>
+        <v>45736.39027777778</v>
       </c>
       <c r="B128" t="n">
-        <v>26.8</v>
+        <v>25.6</v>
       </c>
       <c r="C128" t="n">
-        <v>71.7</v>
+        <v>70.03333333333333</v>
       </c>
       <c r="D128" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
         <v>1</v>
@@ -4291,19 +4291,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45737.76111111111</v>
+        <v>45736.43194444444</v>
       </c>
       <c r="B129" t="n">
-        <v>26.9</v>
+        <v>25.96666666666667</v>
       </c>
       <c r="C129" t="n">
-        <v>71.7</v>
+        <v>70.31666666666666</v>
       </c>
       <c r="D129" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
         <v>1</v>
@@ -4321,19 +4321,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45737.80277777778</v>
+        <v>45736.47361111111</v>
       </c>
       <c r="B130" t="n">
-        <v>26.6</v>
+        <v>25.8</v>
       </c>
       <c r="C130" t="n">
-        <v>72.3</v>
+        <v>70.5</v>
       </c>
       <c r="D130" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F130" t="n">
         <v>1</v>
@@ -4351,19 +4351,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45737.84444444445</v>
+        <v>45736.51527777778</v>
       </c>
       <c r="B131" t="n">
-        <v>26.9</v>
+        <v>25.9</v>
       </c>
       <c r="C131" t="n">
-        <v>71.7</v>
+        <v>70.26666666666667</v>
       </c>
       <c r="D131" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F131" t="n">
         <v>1</v>
@@ -4381,19 +4381,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45737.88611111111</v>
+        <v>45736.55694444444</v>
       </c>
       <c r="B132" t="n">
-        <v>28.1</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="C132" t="n">
-        <v>72</v>
+        <v>70.45</v>
       </c>
       <c r="D132" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
         <v>1</v>
@@ -4411,19 +4411,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45737.92777777778</v>
+        <v>45736.59861111111</v>
       </c>
       <c r="B133" t="n">
-        <v>45.8</v>
+        <v>26.06666666666667</v>
       </c>
       <c r="C133" t="n">
-        <v>67.7</v>
+        <v>70.58333333333333</v>
       </c>
       <c r="D133" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
         <v>1</v>
@@ -4441,19 +4441,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45737.96944444445</v>
+        <v>45736.64027777778</v>
       </c>
       <c r="B134" t="n">
-        <v>26.6</v>
+        <v>25.56666666666667</v>
       </c>
       <c r="C134" t="n">
-        <v>66.40000000000001</v>
+        <v>70.55</v>
       </c>
       <c r="D134" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
         <v>1</v>
@@ -4471,19 +4471,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45738.01111111111</v>
+        <v>45736.68194444444</v>
       </c>
       <c r="B135" t="n">
-        <v>27</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="C135" t="n">
-        <v>68.40000000000001</v>
+        <v>70.55</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
         <v>1</v>
@@ -4501,19 +4501,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45738.05277777778</v>
+        <v>45736.72361111111</v>
       </c>
       <c r="B136" t="n">
-        <v>27.1</v>
+        <v>26.01666666666667</v>
       </c>
       <c r="C136" t="n">
-        <v>69.3</v>
+        <v>71.58333333333333</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E136" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
         <v>1</v>
@@ -4531,19 +4531,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45738.09444444445</v>
+        <v>45736.76527777778</v>
       </c>
       <c r="B137" t="n">
-        <v>27</v>
+        <v>27.58333333333333</v>
       </c>
       <c r="C137" t="n">
-        <v>70.09999999999999</v>
+        <v>72.01666666666667</v>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F137" t="n">
         <v>1</v>
@@ -4561,19 +4561,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45738.13611111111</v>
+        <v>45736.80694444444</v>
       </c>
       <c r="B138" t="n">
-        <v>26.8</v>
+        <v>25.95</v>
       </c>
       <c r="C138" t="n">
-        <v>70</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D138" t="n">
+        <v>19</v>
+      </c>
+      <c r="E138" t="n">
         <v>3</v>
-      </c>
-      <c r="E138" t="n">
-        <v>5</v>
       </c>
       <c r="F138" t="n">
         <v>1</v>
@@ -4591,19 +4591,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45738.17777777778</v>
+        <v>45736.84861111111</v>
       </c>
       <c r="B139" t="n">
-        <v>26.9</v>
+        <v>25.83333333333333</v>
       </c>
       <c r="C139" t="n">
-        <v>68.40000000000001</v>
+        <v>71.48333333333333</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
         <v>1</v>
@@ -4621,19 +4621,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45738.21944444445</v>
+        <v>45736.89027777778</v>
       </c>
       <c r="B140" t="n">
-        <v>26.8</v>
+        <v>27.48333333333333</v>
       </c>
       <c r="C140" t="n">
-        <v>68.90000000000001</v>
+        <v>71.61666666666666</v>
       </c>
       <c r="D140" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E140" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F140" t="n">
         <v>1</v>
@@ -4651,19 +4651,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45738.26111111111</v>
+        <v>45736.93194444444</v>
       </c>
       <c r="B141" t="n">
-        <v>26.6</v>
+        <v>42.18333333333333</v>
       </c>
       <c r="C141" t="n">
-        <v>69.7</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>1</v>
@@ -4681,19 +4681,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45738.30277777778</v>
+        <v>45736.97361111111</v>
       </c>
       <c r="B142" t="n">
-        <v>25.8</v>
+        <v>25.86666666666667</v>
       </c>
       <c r="C142" t="n">
-        <v>70.2</v>
+        <v>70.48333333333333</v>
       </c>
       <c r="D142" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E142" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F142" t="n">
         <v>1</v>
@@ -4711,19 +4711,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45738.34444444445</v>
+        <v>45737.01527777778</v>
       </c>
       <c r="B143" t="n">
-        <v>25.6</v>
+        <v>25.73333333333333</v>
       </c>
       <c r="C143" t="n">
         <v>71.3</v>
       </c>
       <c r="D143" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F143" t="n">
         <v>1</v>
@@ -4741,19 +4741,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45738.38611111111</v>
+        <v>45737.05694444444</v>
       </c>
       <c r="B144" t="n">
-        <v>25.6</v>
+        <v>25.93333333333333</v>
       </c>
       <c r="C144" t="n">
-        <v>71</v>
+        <v>71.48333333333333</v>
       </c>
       <c r="D144" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F144" t="n">
         <v>1</v>
@@ -4771,19 +4771,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45738.42777777778</v>
+        <v>45737.09861111111</v>
       </c>
       <c r="B145" t="n">
-        <v>27</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="C145" t="n">
-        <v>66.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F145" t="n">
         <v>1</v>
@@ -4801,19 +4801,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45738.46944444445</v>
+        <v>45737.14027777778</v>
       </c>
       <c r="B146" t="n">
-        <v>41.7</v>
+        <v>26.01666666666667</v>
       </c>
       <c r="C146" t="n">
-        <v>65.59999999999999</v>
+        <v>69.61666666666666</v>
       </c>
       <c r="D146" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
@@ -4831,19 +4831,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45738.51111111111</v>
+        <v>45737.18194444444</v>
       </c>
       <c r="B147" t="n">
-        <v>26.7</v>
+        <v>25.46666666666667</v>
       </c>
       <c r="C147" t="n">
-        <v>65.7</v>
+        <v>69.28333333333333</v>
       </c>
       <c r="D147" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F147" t="n">
         <v>1</v>
@@ -4861,19 +4861,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45738.55277777778</v>
+        <v>45737.22361111111</v>
       </c>
       <c r="B148" t="n">
-        <v>25.2</v>
+        <v>26.05</v>
       </c>
       <c r="C148" t="n">
-        <v>67.09999999999999</v>
+        <v>69.95</v>
       </c>
       <c r="D148" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E148" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F148" t="n">
         <v>1</v>
@@ -4891,19 +4891,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45738.59444444445</v>
+        <v>45737.26527777778</v>
       </c>
       <c r="B149" t="n">
-        <v>25.4</v>
+        <v>25.7</v>
       </c>
       <c r="C149" t="n">
-        <v>67.40000000000001</v>
+        <v>70.21666666666667</v>
       </c>
       <c r="D149" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E149" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F149" t="n">
         <v>1</v>
@@ -4921,19 +4921,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45738.63611111111</v>
+        <v>45737.30694444444</v>
       </c>
       <c r="B150" t="n">
-        <v>25.5</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="C150" t="n">
-        <v>68</v>
+        <v>70.43333333333334</v>
       </c>
       <c r="D150" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F150" t="n">
         <v>1</v>
@@ -4951,19 +4951,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45738.67777777778</v>
+        <v>45737.34861111111</v>
       </c>
       <c r="B151" t="n">
-        <v>25.4</v>
+        <v>25.85</v>
       </c>
       <c r="C151" t="n">
-        <v>67.90000000000001</v>
+        <v>71.96666666666667</v>
       </c>
       <c r="D151" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E151" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4981,19 +4981,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45738.71944444445</v>
+        <v>45737.39027777778</v>
       </c>
       <c r="B152" t="n">
-        <v>25.1</v>
+        <v>25.58333333333333</v>
       </c>
       <c r="C152" t="n">
-        <v>67.90000000000001</v>
+        <v>72.53333333333333</v>
       </c>
       <c r="D152" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F152" t="n">
         <v>1</v>
@@ -5011,19 +5011,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45738.76111111111</v>
+        <v>45737.43194444444</v>
       </c>
       <c r="B153" t="n">
-        <v>25.1</v>
+        <v>25.85</v>
       </c>
       <c r="C153" t="n">
-        <v>67.90000000000001</v>
+        <v>71.86666666666666</v>
       </c>
       <c r="D153" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E153" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F153" t="n">
         <v>1</v>
@@ -5041,19 +5041,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45738.80277777778</v>
+        <v>45737.47361111111</v>
       </c>
       <c r="B154" t="n">
-        <v>37.6</v>
+        <v>25.8</v>
       </c>
       <c r="C154" t="n">
-        <v>65.7</v>
+        <v>71.7</v>
       </c>
       <c r="D154" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E154" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F154" t="n">
         <v>1</v>
@@ -5071,19 +5071,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45738.84444444445</v>
+        <v>45737.51527777778</v>
       </c>
       <c r="B155" t="n">
-        <v>25.2</v>
+        <v>27.1</v>
       </c>
       <c r="C155" t="n">
-        <v>66.90000000000001</v>
+        <v>71.83333333333333</v>
       </c>
       <c r="D155" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" t="n">
         <v>1</v>
@@ -5101,19 +5101,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45738.88611111111</v>
+        <v>45737.55694444444</v>
       </c>
       <c r="B156" t="n">
-        <v>25.2</v>
+        <v>26.73333333333333</v>
       </c>
       <c r="C156" t="n">
-        <v>67.40000000000001</v>
+        <v>71.71666666666667</v>
       </c>
       <c r="D156" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E156" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F156" t="n">
         <v>1</v>
@@ -5131,19 +5131,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45738.92777777778</v>
+        <v>45737.59861111111</v>
       </c>
       <c r="B157" t="n">
-        <v>25.1</v>
+        <v>26.75</v>
       </c>
       <c r="C157" t="n">
-        <v>67.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="D157" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F157" t="n">
         <v>1</v>
@@ -5161,19 +5161,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45738.96944444445</v>
+        <v>45737.64027777778</v>
       </c>
       <c r="B158" t="n">
-        <v>25.6</v>
+        <v>26.46666666666667</v>
       </c>
       <c r="C158" t="n">
-        <v>68.40000000000001</v>
+        <v>71.95</v>
       </c>
       <c r="D158" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E158" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F158" t="n">
         <v>1</v>
@@ -5191,19 +5191,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45739.01111111111</v>
+        <v>45737.68194444444</v>
       </c>
       <c r="B159" t="n">
-        <v>25</v>
+        <v>26.3</v>
       </c>
       <c r="C159" t="n">
-        <v>67.40000000000001</v>
+        <v>71.46666666666667</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E159" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
@@ -5221,19 +5221,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45739.05277777778</v>
+        <v>45737.72361111111</v>
       </c>
       <c r="B160" t="n">
-        <v>25.1</v>
+        <v>26.76666666666667</v>
       </c>
       <c r="C160" t="n">
-        <v>67.40000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E160" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F160" t="n">
         <v>1</v>
@@ -5251,19 +5251,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45739.09444444445</v>
+        <v>45737.76527777778</v>
       </c>
       <c r="B161" t="n">
-        <v>25.1</v>
+        <v>26.93333333333333</v>
       </c>
       <c r="C161" t="n">
-        <v>67.8</v>
+        <v>71.63333333333334</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F161" t="n">
         <v>1</v>
@@ -5281,19 +5281,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45739.13611111111</v>
+        <v>45737.80694444444</v>
       </c>
       <c r="B162" t="n">
-        <v>37.4</v>
+        <v>26.55</v>
       </c>
       <c r="C162" t="n">
-        <v>65.3</v>
+        <v>72.25</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F162" t="n">
         <v>1</v>
@@ -5311,19 +5311,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45739.17777777778</v>
+        <v>45737.84861111111</v>
       </c>
       <c r="B163" t="n">
-        <v>25.4</v>
+        <v>27.15</v>
       </c>
       <c r="C163" t="n">
-        <v>66.8</v>
+        <v>71.73333333333333</v>
       </c>
       <c r="D163" t="n">
+        <v>20</v>
+      </c>
+      <c r="E163" t="n">
         <v>4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>6</v>
       </c>
       <c r="F163" t="n">
         <v>1</v>
@@ -5341,19 +5341,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45739.21944444445</v>
+        <v>45737.89027777778</v>
       </c>
       <c r="B164" t="n">
-        <v>25.2</v>
+        <v>29.68333333333333</v>
       </c>
       <c r="C164" t="n">
-        <v>67.59999999999999</v>
+        <v>71.58333333333333</v>
       </c>
       <c r="D164" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F164" t="n">
         <v>1</v>
@@ -5371,19 +5371,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45739.26111111111</v>
+        <v>45737.93194444444</v>
       </c>
       <c r="B165" t="n">
-        <v>25.2</v>
+        <v>44.03333333333333</v>
       </c>
       <c r="C165" t="n">
-        <v>67.8</v>
+        <v>67.16666666666667</v>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F165" t="n">
         <v>1</v>
@@ -5401,19 +5401,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45739.30277777778</v>
+        <v>45737.97361111111</v>
       </c>
       <c r="B166" t="n">
-        <v>25.1</v>
+        <v>26.55</v>
       </c>
       <c r="C166" t="n">
-        <v>68.09999999999999</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E166" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F166" t="n">
         <v>1</v>
@@ -5431,19 +5431,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45739.34444444445</v>
+        <v>45738.01527777778</v>
       </c>
       <c r="B167" t="n">
-        <v>25.3</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="C167" t="n">
-        <v>69</v>
+        <v>68.38333333333334</v>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45739.38611111111</v>
+        <v>45738.05694444444</v>
       </c>
       <c r="B168" t="n">
-        <v>25.2</v>
+        <v>27.1</v>
       </c>
       <c r="C168" t="n">
-        <v>68.90000000000001</v>
+        <v>69.45</v>
       </c>
       <c r="D168" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F168" t="n">
         <v>1</v>
@@ -5491,29 +5491,989 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45739.42777777778</v>
+        <v>45738.09861111111</v>
       </c>
       <c r="B169" t="n">
+        <v>27.18333333333333</v>
+      </c>
+      <c r="C169" t="n">
+        <v>70.06666666666666</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45738.14027777778</v>
+      </c>
+      <c r="B170" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="C170" t="n">
+        <v>69.83333333333333</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45738.18194444444</v>
+      </c>
+      <c r="B171" t="n">
+        <v>27.03333333333333</v>
+      </c>
+      <c r="C171" t="n">
+        <v>68.43333333333334</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45738.22361111111</v>
+      </c>
+      <c r="B172" t="n">
+        <v>26.68333333333333</v>
+      </c>
+      <c r="C172" t="n">
+        <v>69.01666666666667</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45738.26527777778</v>
+      </c>
+      <c r="B173" t="n">
+        <v>26.65</v>
+      </c>
+      <c r="C173" t="n">
+        <v>69.63333333333334</v>
+      </c>
+      <c r="D173" t="n">
+        <v>6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>5</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45738.30694444444</v>
+      </c>
+      <c r="B174" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="C174" t="n">
+        <v>70.41666666666667</v>
+      </c>
+      <c r="D174" t="n">
+        <v>7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45738.34861111111</v>
+      </c>
+      <c r="B175" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C175" t="n">
+        <v>71.25</v>
+      </c>
+      <c r="D175" t="n">
+        <v>8</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45738.39027777778</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.51666666666667</v>
+      </c>
+      <c r="C176" t="n">
+        <v>70.68333333333334</v>
+      </c>
+      <c r="D176" t="n">
+        <v>9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45738.43194444444</v>
+      </c>
+      <c r="B177" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="C177" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D177" t="n">
+        <v>10</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45738.47361111111</v>
+      </c>
+      <c r="B178" t="n">
+        <v>43.43333333333333</v>
+      </c>
+      <c r="C178" t="n">
+        <v>65.16666666666667</v>
+      </c>
+      <c r="D178" t="n">
+        <v>11</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45738.51527777778</v>
+      </c>
+      <c r="B179" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="C179" t="n">
+        <v>66.01666666666667</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45738.55694444444</v>
+      </c>
+      <c r="B180" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="C180" t="n">
+        <v>67.16666666666667</v>
+      </c>
+      <c r="D180" t="n">
+        <v>13</v>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45738.59861111111</v>
+      </c>
+      <c r="B181" t="n">
+        <v>25.43333333333333</v>
+      </c>
+      <c r="C181" t="n">
+        <v>67.51666666666667</v>
+      </c>
+      <c r="D181" t="n">
+        <v>14</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45738.64027777778</v>
+      </c>
+      <c r="B182" t="n">
         <v>25.5</v>
       </c>
-      <c r="C169" t="n">
-        <v>69</v>
-      </c>
-      <c r="D169" t="n">
+      <c r="C182" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="D182" t="n">
+        <v>15</v>
+      </c>
+      <c r="E182" t="n">
+        <v>5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45738.68194444444</v>
+      </c>
+      <c r="B183" t="n">
+        <v>25.38333333333333</v>
+      </c>
+      <c r="C183" t="n">
+        <v>67.93333333333334</v>
+      </c>
+      <c r="D183" t="n">
+        <v>16</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45738.72361111111</v>
+      </c>
+      <c r="B184" t="n">
+        <v>25.08333333333333</v>
+      </c>
+      <c r="C184" t="n">
+        <v>67.91666666666667</v>
+      </c>
+      <c r="D184" t="n">
+        <v>17</v>
+      </c>
+      <c r="E184" t="n">
+        <v>5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45738.76527777778</v>
+      </c>
+      <c r="B185" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>67.83333333333333</v>
+      </c>
+      <c r="D185" t="n">
+        <v>18</v>
+      </c>
+      <c r="E185" t="n">
+        <v>5</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45738.80694444444</v>
+      </c>
+      <c r="B186" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C186" t="n">
+        <v>65.55</v>
+      </c>
+      <c r="D186" t="n">
+        <v>19</v>
+      </c>
+      <c r="E186" t="n">
+        <v>5</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45738.84861111111</v>
+      </c>
+      <c r="B187" t="n">
+        <v>25.23333333333333</v>
+      </c>
+      <c r="C187" t="n">
+        <v>66.91666666666667</v>
+      </c>
+      <c r="D187" t="n">
+        <v>20</v>
+      </c>
+      <c r="E187" t="n">
+        <v>5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45738.89027777778</v>
+      </c>
+      <c r="B188" t="n">
+        <v>25.18333333333333</v>
+      </c>
+      <c r="C188" t="n">
+        <v>67.45</v>
+      </c>
+      <c r="D188" t="n">
+        <v>21</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45738.93194444444</v>
+      </c>
+      <c r="B189" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>67.63333333333334</v>
+      </c>
+      <c r="D189" t="n">
+        <v>22</v>
+      </c>
+      <c r="E189" t="n">
+        <v>5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45738.97361111111</v>
+      </c>
+      <c r="B190" t="n">
+        <v>25.51666666666667</v>
+      </c>
+      <c r="C190" t="n">
+        <v>68.31666666666666</v>
+      </c>
+      <c r="D190" t="n">
+        <v>23</v>
+      </c>
+      <c r="E190" t="n">
+        <v>5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45739.01527777778</v>
+      </c>
+      <c r="B191" t="n">
+        <v>25.13333333333333</v>
+      </c>
+      <c r="C191" t="n">
+        <v>67.43333333333334</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45739.05694444444</v>
+      </c>
+      <c r="B192" t="n">
+        <v>24.88333333333333</v>
+      </c>
+      <c r="C192" t="n">
+        <v>67.43333333333334</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45739.09861111111</v>
+      </c>
+      <c r="B193" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>67.75</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45739.14027777778</v>
+      </c>
+      <c r="B194" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="C194" t="n">
+        <v>65.06666666666666</v>
+      </c>
+      <c r="D194" t="n">
+        <v>3</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45739.18194444444</v>
+      </c>
+      <c r="B195" t="n">
+        <v>25.48333333333333</v>
+      </c>
+      <c r="C195" t="n">
+        <v>67.11666666666666</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45739.22361111111</v>
+      </c>
+      <c r="B196" t="n">
+        <v>25.13333333333333</v>
+      </c>
+      <c r="C196" t="n">
+        <v>67.48333333333333</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45739.26527777778</v>
+      </c>
+      <c r="B197" t="n">
+        <v>25.26666666666667</v>
+      </c>
+      <c r="C197" t="n">
+        <v>67.68333333333334</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45739.30694444444</v>
+      </c>
+      <c r="B198" t="n">
+        <v>25.11666666666667</v>
+      </c>
+      <c r="C198" t="n">
+        <v>68.36666666666666</v>
+      </c>
+      <c r="D198" t="n">
+        <v>7</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45739.34861111111</v>
+      </c>
+      <c r="B199" t="n">
+        <v>25.23333333333333</v>
+      </c>
+      <c r="C199" t="n">
+        <v>69.11666666666666</v>
+      </c>
+      <c r="D199" t="n">
+        <v>8</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45739.39027777778</v>
+      </c>
+      <c r="B200" t="n">
+        <v>25.28333333333333</v>
+      </c>
+      <c r="C200" t="n">
+        <v>68.93333333333334</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45739.43194444444</v>
+      </c>
+      <c r="B201" t="n">
+        <v>25.41666666666667</v>
+      </c>
+      <c r="C201" t="n">
+        <v>68.98333333333333</v>
+      </c>
+      <c r="D201" t="n">
         <v>10</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E201" t="n">
         <v>6</v>
       </c>
-      <c r="F169" t="n">
-        <v>1</v>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Optimal</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Optimal</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>Optimal</t>
         </is>
